--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-17T18:01:25-03:00</t>
+    <t>2023-09-17T18:19:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-17T18:19:19-03:00</t>
+    <t>2023-09-18T09:23:55-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/all-profiles.xlsx
+++ b/docs/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-18T09:23:55-03:00</t>
+    <t>2023-09-18T16:59:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
